--- a/dataentry - dll.xlsx
+++ b/dataentry - dll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="51">
   <si>
     <t>varPenghasilanKotorSatu</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,6 +716,780 @@
         <v>28</v>
       </c>
     </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
